--- a/data/metadata/Informe-915-150012-A.xlsx
+++ b/data/metadata/Informe-915-150012-A.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -37,7 +37,7 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-dimension:diputados</t>
+    <t>iaest-measure:diputados</t>
   </si>
   <si>
     <t>iaest-measure:siglas</t>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-diputados.xlsx</t>
   </si>
 </sst>
 </file>
@@ -175,7 +172,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -195,7 +192,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -213,9 +210,6 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-915-150012-A.xlsx
+++ b/data/metadata/Informe-915-150012-A.xlsx
@@ -11,57 +11,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>diputados</t>
-  </si>
-  <si>
-    <t>siglas</t>
-  </si>
-  <si>
-    <t>votos</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Siglas</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Diputados</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Votos</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:siglas</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:diputados</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:diputados</t>
-  </si>
-  <si>
-    <t>iaest-measure:siglas</t>
-  </si>
-  <si>
     <t>iaest-measure:votos</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -169,19 +172,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -189,27 +192,24 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-915-150012-A.xlsx
+++ b/data/metadata/Informe-915-150012-A.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>CCAA nombre</t>
   </si>
@@ -31,6 +31,24 @@
     <t>Votos</t>
   </si>
   <si>
+    <t>ccaa-nombre</t>
+  </si>
+  <si>
+    <t>siglas</t>
+  </si>
+  <si>
+    <t>ccaa-codigo</t>
+  </si>
+  <si>
+    <t>diputados</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>votos</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -65,9 +83,6 @@
   </si>
   <si>
     <t>xsd:date</t>
-  </si>
-  <si>
-    <t>mapping-ano.xlsx</t>
   </si>
 </sst>
 </file>
@@ -175,41 +190,56 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
